--- a/DFT_Calculations/3.get_properties/gp_openshell/temp/pyrz_extracted_properties.xlsx
+++ b/DFT_Calculations/3.get_properties/gp_openshell/temp/pyrz_extracted_properties.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>log_name</t>
   </si>
@@ -109,12 +109,6 @@
     <t>NBO_charge_C2</t>
   </si>
   <si>
-    <t>NMR_shift_C1</t>
-  </si>
-  <si>
-    <t>NMR_shift_C2</t>
-  </si>
-  <si>
     <t>distance_C1_C2(Å)</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
   </si>
   <si>
     <t>Sterimol_B5_C1_C2(Å)_morfeus</t>
-  </si>
-  <si>
-    <t>pyramidalization_Gavrish_C1(°)</t>
-  </si>
-  <si>
-    <t>pyramidalization_Agranat-Radhakrishnan_C1</t>
   </si>
   <si>
     <t>C1_C2_Bond_Order</t>
@@ -557,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,40 +672,28 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -726,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K2">
         <v>-456.601997</v>
@@ -794,61 +770,49 @@
       <c r="AF2">
         <v>0.03199</v>
       </c>
-      <c r="AG2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>61</v>
+      <c r="AG2">
+        <v>1.39879</v>
+      </c>
+      <c r="AH2">
+        <v>84.83987603305785</v>
       </c>
       <c r="AI2">
-        <v>1.39879</v>
+        <v>95.89036673553719</v>
       </c>
       <c r="AJ2">
-        <v>84.83987603305785</v>
+        <v>8.807193880876579</v>
       </c>
       <c r="AK2">
-        <v>95.89036673553719</v>
+        <v>1.700283028845145</v>
       </c>
       <c r="AL2">
-        <v>8.807193880876579</v>
-      </c>
-      <c r="AM2">
-        <v>1.700283028845145</v>
-      </c>
-      <c r="AN2">
         <v>4.366581268688364</v>
       </c>
-      <c r="AO2">
-        <v>0.001237640649965756</v>
-      </c>
-      <c r="AP2">
-        <v>0.0001863180381383483</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>61</v>
+      <c r="AM2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -863,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>-495.916761</v>
@@ -931,67 +895,55 @@
       <c r="AF3">
         <v>0.04064</v>
       </c>
-      <c r="AG3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>61</v>
+      <c r="AG3">
+        <v>1.40526</v>
+      </c>
+      <c r="AH3">
+        <v>92.11647727272727</v>
       </c>
       <c r="AI3">
-        <v>1.40526</v>
+        <v>95.85808367768594</v>
       </c>
       <c r="AJ3">
-        <v>92.11647727272727</v>
+        <v>8.831331875875613</v>
       </c>
       <c r="AK3">
-        <v>95.85808367768594</v>
+        <v>1.837123979636388</v>
       </c>
       <c r="AL3">
-        <v>8.831331875875613</v>
-      </c>
-      <c r="AM3">
-        <v>1.837123979636388</v>
-      </c>
-      <c r="AN3">
         <v>4.332953324415987</v>
       </c>
-      <c r="AO3">
-        <v>0.0007736275475564862</v>
-      </c>
-      <c r="AP3">
-        <v>0.0001161890690014869</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>61</v>
+      <c r="AM3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -1000,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K4">
         <v>-302.962267</v>
@@ -1068,55 +1020,43 @@
       <c r="AF4">
         <v>0.02573</v>
       </c>
-      <c r="AG4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>61</v>
+      <c r="AG4">
+        <v>1.40265</v>
+      </c>
+      <c r="AH4">
+        <v>84.88507231404959</v>
       </c>
       <c r="AI4">
-        <v>1.40265</v>
+        <v>95.83871384297521</v>
       </c>
       <c r="AJ4">
-        <v>84.88507231404959</v>
+        <v>6.685712516077437</v>
       </c>
       <c r="AK4">
-        <v>95.83871384297521</v>
+        <v>1.700294197565208</v>
       </c>
       <c r="AL4">
-        <v>6.685712516077437</v>
-      </c>
-      <c r="AM4">
-        <v>1.700294197565208</v>
-      </c>
-      <c r="AN4">
         <v>3.270370091187877</v>
       </c>
-      <c r="AO4">
-        <v>6.042864575363498E-05</v>
-      </c>
-      <c r="AP4">
-        <v>9.097469598202788E-06</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>61</v>
+      <c r="AM4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:41">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1137,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K5">
         <v>-342.27414</v>
@@ -1205,44 +1145,32 @@
       <c r="AF5">
         <v>0.03713</v>
       </c>
-      <c r="AG5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>61</v>
+      <c r="AG5">
+        <v>1.41171</v>
+      </c>
+      <c r="AH5">
+        <v>91.97443181818183</v>
       </c>
       <c r="AI5">
-        <v>1.41171</v>
+        <v>95.9323347107438</v>
       </c>
       <c r="AJ5">
-        <v>91.97443181818183</v>
+        <v>6.698010864449122</v>
       </c>
       <c r="AK5">
-        <v>95.9323347107438</v>
+        <v>1.808452002003697</v>
       </c>
       <c r="AL5">
-        <v>6.698010864449122</v>
-      </c>
-      <c r="AM5">
-        <v>1.808452002003697</v>
-      </c>
-      <c r="AN5">
         <v>3.266762849868151</v>
       </c>
-      <c r="AO5">
-        <v>0.0007720985343004276</v>
-      </c>
-      <c r="AP5">
-        <v>0.0001158093321595495</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>61</v>
+      <c r="AM5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
